--- a/Data/Reportfor_PreQc_status.xlsx
+++ b/Data/Reportfor_PreQc_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Module</x:t>
   </x:si>
@@ -143,6 +143,156 @@
   </x:si>
   <x:si>
     <x:t>19-01-2021 06:37:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:11:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:11:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:12:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:12:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>House format (HF) medialevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>House format (HF) medialevel is completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:12:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:16:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:16:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:16:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:17:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:17:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:18:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:18:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:18:58 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:19:10 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:19:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:19:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:19:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:20:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:28:26 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:28:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:29:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:29:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2021 05:29:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 12:39:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 12:39:44 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 12:39:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 12:40:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 12:59:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 01:00:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 03:55:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 03:55:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 03:55:58 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 03:56:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ingest status in DM level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ingest status in DM level is completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 03:56:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 03:56:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 03:56:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:01:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:01:53 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:02:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:02:20 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:02:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:02:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:02:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateTime.Now.Date.ToString("dd-MM-yyyy")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:14:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2021 04:15:24 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -822,6 +972,641 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B23" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C23" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D23" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B24" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C24" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D24" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B25" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C25" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D25" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B26" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C26" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D26" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B27" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C27" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D27" s="4" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B28" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C28" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D28" s="4" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B29" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C29" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D29" s="4" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B30" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C30" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D30" s="4" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B31" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C31" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D31" s="4" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B32" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C32" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D32" s="4" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B33" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C33" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D33" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B34" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C34" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D34" s="4" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B35" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C35" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D35" s="4" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B36" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C36" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D36" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B37" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C37" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D37" s="4" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B38" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C38" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D38" s="4" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C39" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D39" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B40" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C40" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D40" s="4" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B41" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C41" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D41" s="4" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B42" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C42" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D42" s="4" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B43" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C43" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D43" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B44" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C44" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D44" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B45" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C45" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D45" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B46" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C46" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D46" s="4" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B47" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C47" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D47" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B48" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C48" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D48" s="4" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B49" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C49" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D49" s="4" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B50" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C50" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D50" s="4" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="A51" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B51" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C51" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D51" s="4" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
+      <x:c r="A52" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B52" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C52" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D52" s="4" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="A53" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B53" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C53" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D53" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="A54" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B54" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C54" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D54" s="4" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="A55" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B55" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C55" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D55" s="4" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="A56" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B56" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C56" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D56" s="4" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="A57" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B57" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C57" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D57" s="4" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4">
+      <x:c r="A58" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B58" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C58" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D58" s="4" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="A59" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B59" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C59" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D59" s="4" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4">
+      <x:c r="A60" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B60" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C60" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D60" s="4" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4">
+      <x:c r="A61" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B61" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C61" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D61" s="4" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4">
+      <x:c r="A62" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B62" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C62" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D62" s="4" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="A63" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B63" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C63" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D63" s="4" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="A64" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B64" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C64" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D64" s="4" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="A65" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B65" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C65" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D65" s="4" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="D66" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="A67" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B67" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C67" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D67" s="4" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4">
+      <x:c r="A68" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B68" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C68" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D68" s="4" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/Reportfor_PreQc_status.xlsx
+++ b/Data/Reportfor_PreQc_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <x:si>
     <x:t>Module</x:t>
   </x:si>
@@ -293,6 +293,129 @@
   </x:si>
   <x:si>
     <x:t>22-01-2021 04:15:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 11:58:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 11:59:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 11:59:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 11:59:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:00:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:00:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:00:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:06:26 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:06:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:07:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:07:26 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:07:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:07:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:08:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:08:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:14:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:26:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:28:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:28:26 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:28:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:28:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:29:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:29:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:29:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 12:29:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:31:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:31:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:32:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:32:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:32:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:32:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:36:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:37:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:37:26 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:37:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:38:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:38:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pre-QC report download</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pre-Qc Report downloaded sucessfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:39:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2021 01:39:21 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1607,6 +1730,676 @@
         <x:v>90</x:v>
       </x:c>
     </x:row>
+    <x:row r="69" spans="1:4">
+      <x:c r="D69" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4">
+      <x:c r="A70" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B70" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C70" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D70" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4">
+      <x:c r="A71" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B71" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C71" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D71" s="4" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4">
+      <x:c r="D72" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4">
+      <x:c r="A73" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B73" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C73" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D73" s="4" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4">
+      <x:c r="D74" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4">
+      <x:c r="A75" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B75" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C75" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D75" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4">
+      <x:c r="D76" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4">
+      <x:c r="A77" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B77" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C77" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D77" s="4" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4">
+      <x:c r="D78" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4">
+      <x:c r="A79" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B79" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C79" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D79" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4">
+      <x:c r="D80" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4">
+      <x:c r="A81" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B81" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C81" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D81" s="4" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4">
+      <x:c r="D82" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4">
+      <x:c r="A83" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B83" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C83" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D83" s="4" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4">
+      <x:c r="A84" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B84" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C84" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D84" s="4" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4">
+      <x:c r="D85" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4">
+      <x:c r="A86" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B86" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C86" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D86" s="4" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4">
+      <x:c r="D87" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:4">
+      <x:c r="A88" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B88" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C88" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D88" s="4" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:4">
+      <x:c r="D89" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:4">
+      <x:c r="A90" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B90" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C90" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D90" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:4">
+      <x:c r="D91" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:4">
+      <x:c r="A92" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B92" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C92" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D92" s="4" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:4">
+      <x:c r="D93" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:4">
+      <x:c r="A94" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B94" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C94" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D94" s="4" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:4">
+      <x:c r="D95" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:4">
+      <x:c r="A96" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B96" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C96" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D96" s="4" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:4">
+      <x:c r="D97" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:4">
+      <x:c r="A98" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B98" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C98" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D98" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:4">
+      <x:c r="D99" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:4">
+      <x:c r="A100" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B100" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C100" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D100" s="4" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:4">
+      <x:c r="D101" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:4">
+      <x:c r="A102" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B102" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C102" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D102" s="4" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:4">
+      <x:c r="A103" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B103" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C103" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D103" s="4" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:4">
+      <x:c r="D104" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:4">
+      <x:c r="A105" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B105" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C105" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D105" s="4" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:4">
+      <x:c r="D106" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:4">
+      <x:c r="A107" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B107" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C107" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D107" s="4" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:4">
+      <x:c r="D108" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:4">
+      <x:c r="A109" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B109" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C109" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D109" s="4" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:4">
+      <x:c r="D110" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:4">
+      <x:c r="A111" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B111" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C111" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D111" s="4" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:4">
+      <x:c r="D112" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:4">
+      <x:c r="A113" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B113" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C113" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D113" s="4" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:4">
+      <x:c r="D114" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:4">
+      <x:c r="A115" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B115" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C115" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D115" s="4" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:4">
+      <x:c r="A116" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B116" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C116" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D116" s="4" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:4">
+      <x:c r="A117" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B117" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C117" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D117" s="4" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:4">
+      <x:c r="A118" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B118" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C118" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D118" s="4" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:4">
+      <x:c r="A119" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B119" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C119" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D119" s="4" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:4">
+      <x:c r="A120" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B120" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C120" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D120" s="4" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:4">
+      <x:c r="A121" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B121" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C121" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D121" s="4" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:4">
+      <x:c r="A122" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B122" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C122" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D122" s="4" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:4">
+      <x:c r="A123" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B123" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C123" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D123" s="4" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:4">
+      <x:c r="A124" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B124" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C124" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D124" s="4" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:4">
+      <x:c r="A125" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B125" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C125" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D125" s="4" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:4">
+      <x:c r="A126" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B126" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C126" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D126" s="4" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:4">
+      <x:c r="A127" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B127" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C127" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D127" s="4" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:4">
+      <x:c r="A128" s="4" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B128" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C128" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D128" s="4" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:4">
+      <x:c r="A129" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B129" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C129" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D129" s="4" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:4">
+      <x:c r="A130" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B130" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C130" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D130" s="4" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/Reportfor_PreQc_status.xlsx
+++ b/Data/Reportfor_PreQc_status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <x:si>
     <x:t>Module</x:t>
   </x:si>
@@ -416,6 +416,222 @@
   </x:si>
   <x:si>
     <x:t>25-01-2021 01:39:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:32:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:36:44 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:37:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:37:35 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:37:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:38:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:38:33 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:39:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:39:17 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:39:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:39:44 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:39:58 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:40:10 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 03:40:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:02:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:02:35 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:02:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:03:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:03:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:03:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:03:42 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:04:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:07:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:08:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:08:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:08:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:08:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:09:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:09:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:09:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-01-2021 11:24:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-01-2021 05:07:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-01-2021 05:07:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-01-2021 05:07:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-01-2021 05:07:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-01-2021 05:07:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 10:46:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 10:46:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 10:47:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 10:47:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 10:47:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 10:47:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 10:47:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 10:48:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 05:07:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Logged in sucessfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-02-2021 05:07:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-02-2021 05:07:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-02-2021 09:30:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:13:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:15:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:18:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:19:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:20:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:20:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:21:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:21:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:21:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 11:21:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2021 09:30:35 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:31:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:32:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:32:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:32:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:32:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:33:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:33:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:33:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:37:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-02-2021 12:37:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:43:45 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2400,6 +2616,1070 @@
         <x:v>131</x:v>
       </x:c>
     </x:row>
+    <x:row r="131" spans="1:4">
+      <x:c r="A131" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B131" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C131" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D131" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:4">
+      <x:c r="A132" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B132" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C132" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D132" s="4" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:4">
+      <x:c r="A133" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B133" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C133" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D133" s="4" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:4">
+      <x:c r="A134" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B134" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C134" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D134" s="4" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:4">
+      <x:c r="A135" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B135" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C135" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D135" s="4" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:4">
+      <x:c r="A136" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B136" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C136" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D136" s="4" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:4">
+      <x:c r="A137" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B137" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C137" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D137" s="4" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:4">
+      <x:c r="A138" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B138" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C138" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D138" s="4" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:4">
+      <x:c r="A139" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B139" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C139" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D139" s="4" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:4">
+      <x:c r="A140" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B140" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C140" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D140" s="4" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:4">
+      <x:c r="A141" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B141" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C141" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D141" s="4" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:4">
+      <x:c r="A142" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B142" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C142" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D142" s="4" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:4">
+      <x:c r="A143" s="4" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B143" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C143" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D143" s="4" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:4">
+      <x:c r="A144" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B144" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C144" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D144" s="4" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:4">
+      <x:c r="A145" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B145" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C145" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D145" s="4" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:4">
+      <x:c r="A146" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B146" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C146" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D146" s="4" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:4">
+      <x:c r="A147" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B147" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C147" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D147" s="4" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:4">
+      <x:c r="A148" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B148" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C148" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D148" s="4" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:4">
+      <x:c r="A149" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B149" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C149" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D149" s="4" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:4">
+      <x:c r="A150" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B150" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C150" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D150" s="4" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:4">
+      <x:c r="A151" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B151" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C151" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D151" s="4" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:4">
+      <x:c r="A152" s="4" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B152" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C152" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D152" s="4" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:4">
+      <x:c r="A153" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B153" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C153" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D153" s="4" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:4">
+      <x:c r="A154" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B154" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C154" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D154" s="4" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:4">
+      <x:c r="A155" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B155" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C155" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D155" s="4" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:4">
+      <x:c r="A156" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B156" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C156" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D156" s="4" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:4">
+      <x:c r="A157" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B157" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C157" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D157" s="4" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:4">
+      <x:c r="A158" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B158" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C158" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D158" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:4">
+      <x:c r="A159" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B159" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C159" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D159" s="4" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:4">
+      <x:c r="A160" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B160" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C160" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D160" s="4" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:4">
+      <x:c r="A161" s="4" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B161" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C161" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D161" s="4" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:4">
+      <x:c r="A162" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B162" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C162" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D162" s="4" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:4">
+      <x:c r="A163" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B163" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C163" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D163" s="4" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:4">
+      <x:c r="A164" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B164" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C164" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D164" s="4" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:4">
+      <x:c r="A165" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B165" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C165" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D165" s="4" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:4">
+      <x:c r="A166" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B166" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C166" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D166" s="4" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:4">
+      <x:c r="A167" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B167" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C167" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D167" s="4" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:4">
+      <x:c r="A168" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B168" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C168" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D168" s="4" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:4">
+      <x:c r="A169" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B169" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C169" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D169" s="4" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:4">
+      <x:c r="A170" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B170" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C170" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D170" s="4" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:4">
+      <x:c r="A171" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B171" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C171" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D171" s="4" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:4">
+      <x:c r="A172" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B172" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C172" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D172" s="4" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:4">
+      <x:c r="A173" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B173" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C173" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D173" s="4" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:4">
+      <x:c r="A174" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B174" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C174" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D174" s="4" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:4">
+      <x:c r="A175" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B175" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C175" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D175" s="4" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:4">
+      <x:c r="A176" s="4" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B176" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C176" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D176" s="4" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:4">
+      <x:c r="A177" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B177" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C177" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D177" s="4" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:4">
+      <x:c r="A178" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B178" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C178" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D178" s="4" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:4">
+      <x:c r="A179" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B179" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C179" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D179" s="4" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:4">
+      <x:c r="A180" s="4" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B180" s="4" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C180" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D180" s="4" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:4">
+      <x:c r="A181" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B181" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C181" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D181" s="4" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:4">
+      <x:c r="A182" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B182" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C182" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D182" s="4" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:4">
+      <x:c r="A183" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B183" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C183" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D183" s="4" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:4">
+      <x:c r="A184" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B184" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C184" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D184" s="4" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:4">
+      <x:c r="A185" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B185" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C185" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D185" s="4" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:4">
+      <x:c r="A186" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B186" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C186" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D186" s="4" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:4">
+      <x:c r="A187" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B187" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C187" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D187" s="4" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:4">
+      <x:c r="A188" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B188" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C188" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D188" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:4">
+      <x:c r="A189" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B189" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C189" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D189" s="4" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:4">
+      <x:c r="A190" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B190" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C190" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D190" s="4" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:4">
+      <x:c r="A191" s="4" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B191" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C191" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D191" s="4" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:4">
+      <x:c r="A192" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B192" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C192" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D192" s="4" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:4">
+      <x:c r="A193" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B193" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C193" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D193" s="4" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:4">
+      <x:c r="A194" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B194" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C194" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D194" s="4" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:4">
+      <x:c r="A195" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B195" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C195" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D195" s="4" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:4">
+      <x:c r="A196" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B196" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C196" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D196" s="4" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:4">
+      <x:c r="A197" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B197" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C197" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D197" s="4" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:4">
+      <x:c r="A198" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B198" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C198" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D198" s="4" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:4">
+      <x:c r="A199" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B199" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C199" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D199" s="4" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:4">
+      <x:c r="A200" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B200" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C200" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D200" s="4" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:4">
+      <x:c r="A201" s="4" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B201" s="4" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C201" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D201" s="4" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:4">
+      <x:c r="A202" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B202" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C202" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D202" s="4" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:4">
+      <x:c r="A203" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B203" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C203" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D203" s="4" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:4">
+      <x:c r="A204" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B204" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C204" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D204" s="4" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:4">
+      <x:c r="A205" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B205" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C205" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D205" s="4" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:4">
+      <x:c r="A206" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B206" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C206" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D206" s="4" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
